--- a/Star_Legends(Коллекционная карточная игра)/Герои.xlsx
+++ b/Star_Legends(Коллекционная карточная игра)/Герои.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>№ класса</t>
   </si>
@@ -79,6 +79,36 @@
   </si>
   <si>
     <t>65р.</t>
+  </si>
+  <si>
+    <t>Деревенское ополчение</t>
+  </si>
+  <si>
+    <t>3 сек</t>
+  </si>
+  <si>
+    <t>1р.</t>
+  </si>
+  <si>
+    <t>Здание</t>
+  </si>
+  <si>
+    <t>Взрывная катапульта</t>
+  </si>
+  <si>
+    <t>10 сек.</t>
+  </si>
+  <si>
+    <t>артиллерия</t>
+  </si>
+  <si>
+    <t>30р.</t>
+  </si>
+  <si>
+    <t>реализовано</t>
+  </si>
+  <si>
+    <t>да</t>
   </si>
 </sst>
 </file>
@@ -417,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +464,7 @@
     <col min="10" max="10" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +495,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -497,8 +530,11 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -528,6 +564,84 @@
       </c>
       <c r="J3" t="s">
         <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>800</v>
+      </c>
+      <c r="F5">
+        <v>900</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
